--- a/新板子设计/alarm/Alarm_V1.0 和 USB&OLED_V1.0 BOM表.xlsx
+++ b/新板子设计/alarm/Alarm_V1.0 和 USB&OLED_V1.0 BOM表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\english version\新板子设计\alarm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C02FD1D-3F70-402A-951F-F4273515916B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64249A8B-CC0E-4932-AF9C-D4787E503041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="480" windowWidth="14685" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2188,91 +2188,115 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G55" t="s">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G56" t="s">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F57" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>2012</v>
       </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G59" t="s">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>1</v>
       </c>
     </row>
